--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Kuliah 2018-2022\Semester 7\Praktikum Pembelajaran Mesin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Kuliah 2018-2022\Semester 7\Praktikum Pembelajaran Mesin\Kelompok\TugasPraktikumML_141_169\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA1593F-52AA-4A30-8A5C-D60D809EFB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0C2C80-D66B-4A91-8566-1F3D551B1C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C39DC0B8-362F-4177-A341-9F976BC145C5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>No</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>Fadhil Ahmad Wibiputra</t>
+  </si>
+  <si>
+    <t>23 Oktober 2021</t>
+  </si>
+  <si>
+    <t>25 Oktober 2021</t>
+  </si>
+  <si>
+    <t>27 Oktober 2021</t>
+  </si>
+  <si>
+    <t>29 Oktober 2021</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>On Going</t>
   </si>
 </sst>
 </file>
@@ -466,14 +484,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3224CA65-3695-4CD0-B95C-FC21F6B807D7}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="38.140625" customWidth="1"/>
@@ -525,13 +543,21 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -540,13 +566,19 @@
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Kuliah 2018-2022\Semester 7\Praktikum Pembelajaran Mesin\Kelompok\TugasPraktikumML_141_169\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Kuliah 2018-2022\Semester 7\Praktikum Pembelajaran Mesin\Kelompok\TugasPraktikumML_141_169\TugasPraktikumML_141_169\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0C2C80-D66B-4A91-8566-1F3D551B1C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107BB1FC-0BA0-4DA8-89FF-5B9741EC4165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C39DC0B8-362F-4177-A341-9F976BC145C5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -100,6 +100,39 @@
   </si>
   <si>
     <t>On Going</t>
+  </si>
+  <si>
+    <t>Kendala</t>
+  </si>
+  <si>
+    <t>Solusi</t>
+  </si>
+  <si>
+    <t>2 November 2021</t>
+  </si>
+  <si>
+    <t>7 November 2021</t>
+  </si>
+  <si>
+    <t>11 November 2021</t>
+  </si>
+  <si>
+    <t>12 November 2021</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Tidak ada</t>
+  </si>
+  <si>
+    <t>Runtime epoch lama</t>
+  </si>
+  <si>
+    <t>Menggunakan GPU</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -155,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -168,6 +201,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3224CA65-3695-4CD0-B95C-FC21F6B807D7}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,9 +535,11 @@
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="38.140625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,36 +561,44 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -558,132 +607,170 @@
       <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Kuliah 2018-2022\Semester 7\Praktikum Pembelajaran Mesin\Kelompok\TugasPraktikumML_141_169\TugasPraktikumML_141_169\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Kuliah 2018-2022\Semester 7\Praktikum Pembelajaran Mesin\Kelompok\TugasPraktikumML_141_169\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107BB1FC-0BA0-4DA8-89FF-5B9741EC4165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E792616-53BE-4604-93E0-EA382EEB04E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C39DC0B8-362F-4177-A341-9F976BC145C5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -54,30 +54,12 @@
     <t>Modelling</t>
   </si>
   <si>
-    <t>Model inference</t>
-  </si>
-  <si>
-    <t>Model evaluation</t>
-  </si>
-  <si>
-    <t>Prediksi data</t>
-  </si>
-  <si>
-    <t>Frontend web</t>
-  </si>
-  <si>
     <t>Database design</t>
   </si>
   <si>
-    <t>Backend web</t>
-  </si>
-  <si>
     <t>Deployment</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Muhammad Risky Pratama Hermawan</t>
   </si>
   <si>
@@ -120,9 +102,6 @@
     <t>12 November 2021</t>
   </si>
   <si>
-    <t>Waiting</t>
-  </si>
-  <si>
     <t>Tidak ada</t>
   </si>
   <si>
@@ -132,7 +111,43 @@
     <t>Menggunakan GPU</t>
   </si>
   <si>
-    <t>-</t>
+    <t>30 November 2021</t>
+  </si>
+  <si>
+    <t>limit gpu</t>
+  </si>
+  <si>
+    <t>menuggu limit terbuka</t>
+  </si>
+  <si>
+    <t>10 Desember 2021</t>
+  </si>
+  <si>
+    <t>11 Desember 2021</t>
+  </si>
+  <si>
+    <t>Model testing 1</t>
+  </si>
+  <si>
+    <t>Model testing 2</t>
+  </si>
+  <si>
+    <t>Model Evaluation</t>
+  </si>
+  <si>
+    <t>20 Desember 2021</t>
+  </si>
+  <si>
+    <t>19 Desember 2021</t>
+  </si>
+  <si>
+    <t>classification report data</t>
+  </si>
+  <si>
+    <t>21 Desember 2021</t>
+  </si>
+  <si>
+    <t>27 Desember 2021</t>
   </si>
 </sst>
 </file>
@@ -524,14 +539,14 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="42.140625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="38.140625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
@@ -562,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -573,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -593,26 +608,24 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -622,25 +635,25 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -648,59 +661,81 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
@@ -709,14 +744,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="E8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -726,13 +763,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>10</v>
+      </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
       <c r="F9" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -741,15 +776,12 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -759,15 +791,11 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Kuliah 2018-2022\Semester 7\Praktikum Pembelajaran Mesin\Kelompok\TugasPraktikumML_141_169\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Kuliah 2018-2022\Semester 7\Praktikum Pembelajaran Mesin\GithubKelompok\TugasPraktikumML_141_169\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E792616-53BE-4604-93E0-EA382EEB04E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3981B1-C679-429E-97D5-B59C1B0A955E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C39DC0B8-362F-4177-A341-9F976BC145C5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Muhammad Risky Pratama Hermawan</t>
   </si>
   <si>
-    <t>Fadhil Ahmad Wibiputra</t>
-  </si>
-  <si>
     <t>23 Oktober 2021</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>On Going</t>
-  </si>
-  <si>
     <t>Kendala</t>
   </si>
   <si>
@@ -148,6 +142,18 @@
   </si>
   <si>
     <t>27 Desember 2021</t>
+  </si>
+  <si>
+    <t>28 Desember 2021</t>
+  </si>
+  <si>
+    <t>29 Desember 2021</t>
+  </si>
+  <si>
+    <t>2 Januari 2022</t>
+  </si>
+  <si>
+    <t>1 Januari 2022</t>
   </si>
 </sst>
 </file>
@@ -176,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,11 +205,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -220,6 +237,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3224CA65-3695-4CD0-B95C-FC21F6B807D7}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,10 +597,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -608,22 +628,22 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="5"/>
     </row>
@@ -635,25 +655,25 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -661,28 +681,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -690,28 +710,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -719,24 +739,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -744,18 +766,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -765,12 +795,24 @@
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -780,9 +822,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
